--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hc-C5ar2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hc-C5ar2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,16 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Hc</t>
+  </si>
+  <si>
+    <t>C5ar2</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Hc</t>
-  </si>
-  <si>
-    <t>C5ar2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -546,10 +546,10 @@
         <v>0.35516</v>
       </c>
       <c r="I2">
-        <v>0.6489880347627783</v>
+        <v>0.7705291475929099</v>
       </c>
       <c r="J2">
-        <v>0.6850049568159111</v>
+        <v>0.77052914759291</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.116832</v>
+        <v>0.120074</v>
       </c>
       <c r="N2">
-        <v>0.350496</v>
+        <v>0.360222</v>
       </c>
       <c r="O2">
-        <v>0.006012118201479615</v>
+        <v>0.00855715934293867</v>
       </c>
       <c r="P2">
-        <v>0.006012118201479615</v>
+        <v>0.008580002469517843</v>
       </c>
       <c r="Q2">
-        <v>0.01383135104</v>
+        <v>0.01421516061333333</v>
       </c>
       <c r="R2">
-        <v>0.12448215936</v>
+        <v>0.12793644552</v>
       </c>
       <c r="S2">
-        <v>0.003901792776339785</v>
+        <v>0.006593540694331239</v>
       </c>
       <c r="T2">
-        <v>0.004118330768976697</v>
+        <v>0.006611141989182646</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>0.35516</v>
       </c>
       <c r="I3">
-        <v>0.6489880347627783</v>
+        <v>0.7705291475929099</v>
       </c>
       <c r="J3">
-        <v>0.6850049568159111</v>
+        <v>0.77052914759291</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>1.339502</v>
       </c>
       <c r="O3">
-        <v>0.0229767083079931</v>
+        <v>0.03182018881185777</v>
       </c>
       <c r="P3">
-        <v>0.02297670830799309</v>
+        <v>0.03190513202392993</v>
       </c>
       <c r="Q3">
         <v>0.0528597255911111</v>
@@ -638,10 +638,10 @@
         <v>0.4757375303199999</v>
       </c>
       <c r="S3">
-        <v>0.01491160877012204</v>
+        <v>0.02451838296144622</v>
       </c>
       <c r="T3">
-        <v>0.0157391590822886</v>
+        <v>0.02458383418223798</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -670,10 +670,10 @@
         <v>0.35516</v>
       </c>
       <c r="I4">
-        <v>0.6489880347627783</v>
+        <v>0.7705291475929099</v>
       </c>
       <c r="J4">
-        <v>0.6850049568159111</v>
+        <v>0.77052914759291</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.387742666666665</v>
+        <v>7.033632000000001</v>
       </c>
       <c r="N4">
-        <v>19.163228</v>
+        <v>21.100896</v>
       </c>
       <c r="O4">
-        <v>0.328710147499269</v>
+        <v>0.5012568064992622</v>
       </c>
       <c r="P4">
-        <v>0.328710147499269</v>
+        <v>0.5025948992261415</v>
       </c>
       <c r="Q4">
-        <v>0.7562235618311108</v>
+        <v>0.83268824704</v>
       </c>
       <c r="R4">
-        <v>6.806012056479998</v>
+        <v>7.49419422336</v>
       </c>
       <c r="S4">
-        <v>0.2133289526321336</v>
+        <v>0.3862329798370207</v>
       </c>
       <c r="T4">
-        <v>0.2251680803926885</v>
+        <v>0.3872640192852633</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -732,54 +732,54 @@
         <v>0.35516</v>
       </c>
       <c r="I5">
-        <v>0.6489880347627783</v>
+        <v>0.7705291475929099</v>
       </c>
       <c r="J5">
-        <v>0.6850049568159111</v>
+        <v>0.77052914759291</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.48167633333333</v>
+        <v>0.112075</v>
       </c>
       <c r="N5">
-        <v>37.445029</v>
+        <v>0.22415</v>
       </c>
       <c r="O5">
-        <v>0.6423010259912583</v>
+        <v>0.007987104896645831</v>
       </c>
       <c r="P5">
-        <v>0.6423010259912583</v>
+        <v>0.005338950851259568</v>
       </c>
       <c r="Q5">
-        <v>1.477664055515555</v>
+        <v>0.01326818566666667</v>
       </c>
       <c r="R5">
-        <v>13.29897649964</v>
+        <v>0.07960911399999999</v>
       </c>
       <c r="S5">
-        <v>0.4168456805841829</v>
+        <v>0.006154297127747669</v>
       </c>
       <c r="T5">
-        <v>0.4399793865719573</v>
+        <v>0.004113817248461477</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,46 +788,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.03525666666666667</v>
+        <v>0.1183866666666667</v>
       </c>
       <c r="H6">
-        <v>0.10577</v>
+        <v>0.35516</v>
       </c>
       <c r="I6">
-        <v>0.1932747619012813</v>
+        <v>0.7705291475929099</v>
       </c>
       <c r="J6">
-        <v>0.2040009412164065</v>
+        <v>0.77052914759291</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.116832</v>
+        <v>6.319711333333333</v>
       </c>
       <c r="N6">
-        <v>0.350496</v>
+        <v>18.959134</v>
       </c>
       <c r="O6">
-        <v>0.006012118201479615</v>
+        <v>0.4503787404492957</v>
       </c>
       <c r="P6">
-        <v>0.006012118201479615</v>
+        <v>0.4515810154291511</v>
       </c>
       <c r="Q6">
-        <v>0.00411910688</v>
+        <v>0.7481695590488888</v>
       </c>
       <c r="R6">
-        <v>0.03707196192</v>
+        <v>6.733526031439999</v>
       </c>
       <c r="S6">
-        <v>0.001161990713913332</v>
+        <v>0.3470299469723642</v>
       </c>
       <c r="T6">
-        <v>0.001226477771806131</v>
+        <v>0.3479563348877645</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -856,40 +856,40 @@
         <v>0.10577</v>
       </c>
       <c r="I7">
-        <v>0.1932747619012813</v>
+        <v>0.22947085240709</v>
       </c>
       <c r="J7">
-        <v>0.2040009412164065</v>
+        <v>0.22947085240709</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.4465006666666667</v>
+        <v>0.120074</v>
       </c>
       <c r="N7">
-        <v>1.339502</v>
+        <v>0.360222</v>
       </c>
       <c r="O7">
-        <v>0.0229767083079931</v>
+        <v>0.00855715934293867</v>
       </c>
       <c r="P7">
-        <v>0.02297670830799309</v>
+        <v>0.008580002469517843</v>
       </c>
       <c r="Q7">
-        <v>0.01574212517111111</v>
+        <v>0.004233408993333333</v>
       </c>
       <c r="R7">
-        <v>0.14167912654</v>
+        <v>0.03810068094000001</v>
       </c>
       <c r="S7">
-        <v>0.004440817827502558</v>
+        <v>0.001963618648607431</v>
       </c>
       <c r="T7">
-        <v>0.004687270120885418</v>
+        <v>0.001968860480335197</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -918,10 +918,10 @@
         <v>0.10577</v>
       </c>
       <c r="I8">
-        <v>0.1932747619012813</v>
+        <v>0.22947085240709</v>
       </c>
       <c r="J8">
-        <v>0.2040009412164065</v>
+        <v>0.22947085240709</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.387742666666665</v>
+        <v>0.4465006666666667</v>
       </c>
       <c r="N8">
-        <v>19.163228</v>
+        <v>1.339502</v>
       </c>
       <c r="O8">
-        <v>0.328710147499269</v>
+        <v>0.03182018881185777</v>
       </c>
       <c r="P8">
-        <v>0.328710147499269</v>
+        <v>0.03190513202392993</v>
       </c>
       <c r="Q8">
-        <v>0.2252105139511111</v>
+        <v>0.01574212517111111</v>
       </c>
       <c r="R8">
-        <v>2.02689462556</v>
+        <v>0.14167912654</v>
       </c>
       <c r="S8">
-        <v>0.06353137549245629</v>
+        <v>0.007301805850411552</v>
       </c>
       <c r="T8">
-        <v>0.06705717947723469</v>
+        <v>0.007321297841691947</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -980,10 +980,10 @@
         <v>0.10577</v>
       </c>
       <c r="I9">
-        <v>0.1932747619012813</v>
+        <v>0.22947085240709</v>
       </c>
       <c r="J9">
-        <v>0.2040009412164065</v>
+        <v>0.22947085240709</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,39 +992,39 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.48167633333333</v>
+        <v>7.033632000000001</v>
       </c>
       <c r="N9">
-        <v>37.445029</v>
+        <v>21.100896</v>
       </c>
       <c r="O9">
-        <v>0.6423010259912583</v>
+        <v>0.5012568064992622</v>
       </c>
       <c r="P9">
-        <v>0.6423010259912583</v>
+        <v>0.5025948992261415</v>
       </c>
       <c r="Q9">
-        <v>0.4400623019255555</v>
+        <v>0.24798241888</v>
       </c>
       <c r="R9">
-        <v>3.96056071733</v>
+        <v>2.23184176992</v>
       </c>
       <c r="S9">
-        <v>0.1241405778674091</v>
+        <v>0.1150238266622415</v>
       </c>
       <c r="T9">
-        <v>0.1310300138464802</v>
+        <v>0.1153308799408782</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -1033,81 +1033,81 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.028774</v>
+        <v>0.03525666666666667</v>
       </c>
       <c r="H10">
-        <v>0.057548</v>
+        <v>0.10577</v>
       </c>
       <c r="I10">
-        <v>0.1577372033359403</v>
+        <v>0.22947085240709</v>
       </c>
       <c r="J10">
-        <v>0.1109941019676823</v>
+        <v>0.22947085240709</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.116832</v>
+        <v>0.112075</v>
       </c>
       <c r="N10">
-        <v>0.350496</v>
+        <v>0.22415</v>
       </c>
       <c r="O10">
-        <v>0.006012118201479615</v>
+        <v>0.007987104896645831</v>
       </c>
       <c r="P10">
-        <v>0.006012118201479615</v>
+        <v>0.005338950851259568</v>
       </c>
       <c r="Q10">
-        <v>0.003361723968</v>
+        <v>0.003951390916666667</v>
       </c>
       <c r="R10">
-        <v>0.020170343808</v>
+        <v>0.0237083455</v>
       </c>
       <c r="S10">
-        <v>0.0009483347112264979</v>
+        <v>0.001832807768898161</v>
       </c>
       <c r="T10">
-        <v>0.0006673096606967874</v>
+        <v>0.001225133602798092</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.028774</v>
+        <v>0.03525666666666667</v>
       </c>
       <c r="H11">
-        <v>0.057548</v>
+        <v>0.10577</v>
       </c>
       <c r="I11">
-        <v>0.1577372033359403</v>
+        <v>0.22947085240709</v>
       </c>
       <c r="J11">
-        <v>0.1109941019676823</v>
+        <v>0.22947085240709</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,152 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.4465006666666667</v>
+        <v>6.319711333333333</v>
       </c>
       <c r="N11">
-        <v>1.339502</v>
+        <v>18.959134</v>
       </c>
       <c r="O11">
-        <v>0.0229767083079931</v>
+        <v>0.4503787404492957</v>
       </c>
       <c r="P11">
-        <v>0.02297670830799309</v>
+        <v>0.4515810154291511</v>
       </c>
       <c r="Q11">
-        <v>0.01284761018266667</v>
+        <v>0.2228119559088889</v>
       </c>
       <c r="R11">
-        <v>0.077085661096</v>
+        <v>2.00530760318</v>
       </c>
       <c r="S11">
-        <v>0.003624281710368497</v>
+        <v>0.1033487934769314</v>
       </c>
       <c r="T11">
-        <v>0.00255027910481908</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <v>0.028774</v>
-      </c>
-      <c r="H12">
-        <v>0.057548</v>
-      </c>
-      <c r="I12">
-        <v>0.1577372033359403</v>
-      </c>
-      <c r="J12">
-        <v>0.1109941019676823</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>6.387742666666665</v>
-      </c>
-      <c r="N12">
-        <v>19.163228</v>
-      </c>
-      <c r="O12">
-        <v>0.328710147499269</v>
-      </c>
-      <c r="P12">
-        <v>0.328710147499269</v>
-      </c>
-      <c r="Q12">
-        <v>0.1838009074906666</v>
-      </c>
-      <c r="R12">
-        <v>1.102805444944</v>
-      </c>
-      <c r="S12">
-        <v>0.05184981937467913</v>
-      </c>
-      <c r="T12">
-        <v>0.03648488762934576</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>0.028774</v>
-      </c>
-      <c r="H13">
-        <v>0.057548</v>
-      </c>
-      <c r="I13">
-        <v>0.1577372033359403</v>
-      </c>
-      <c r="J13">
-        <v>0.1109941019676823</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>12.48167633333333</v>
-      </c>
-      <c r="N13">
-        <v>37.445029</v>
-      </c>
-      <c r="O13">
-        <v>0.6423010259912583</v>
-      </c>
-      <c r="P13">
-        <v>0.6423010259912583</v>
-      </c>
-      <c r="Q13">
-        <v>0.3591477548153333</v>
-      </c>
-      <c r="R13">
-        <v>2.154886528892</v>
-      </c>
-      <c r="S13">
-        <v>0.1013147675396662</v>
-      </c>
-      <c r="T13">
-        <v>0.0712916255728207</v>
+        <v>0.1036246805413866</v>
       </c>
     </row>
   </sheetData>
